--- a/regionseng/4/standard of living/incomes.xlsx
+++ b/regionseng/4/standard of living/incomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -274,7 +274,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -312,6 +312,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -322,16 +334,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -645,35 +660,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6">
         <v>2011</v>
@@ -708,8 +726,14 @@
       <c r="L2" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -743,11 +767,17 @@
       <c r="K3" s="3">
         <v>100.46644814678808</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="3">
         <v>108.90176714533821</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="11">
+        <v>141.09332229683847</v>
+      </c>
+      <c r="N3" s="19">
+        <v>173.39380040454043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -781,11 +811,17 @@
       <c r="K4" s="3">
         <v>94.663599556423208</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="3">
         <v>102.08298081299513</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="11">
+        <v>134.63255563493553</v>
+      </c>
+      <c r="N4" s="19">
+        <v>163.90643786452989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -819,11 +855,17 @@
       <c r="K5" s="4">
         <v>51.338288335372916</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="4">
         <v>51.51847438075383</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="12">
+        <v>66.358990320836384</v>
+      </c>
+      <c r="N5" s="20">
+        <v>79.407354549893711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -857,11 +899,17 @@
       <c r="K6" s="4">
         <v>11.379371062100731</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="4">
         <v>14.467768492073059</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="12">
+        <v>22.695593657353719</v>
+      </c>
+      <c r="N6" s="20">
+        <v>23.342982263768512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -895,11 +943,17 @@
       <c r="K7" s="4">
         <v>2.9763904474306742</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="4">
         <v>2.6908674111169812</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="12">
+        <v>5.4713149320902508</v>
+      </c>
+      <c r="N7" s="20">
+        <v>4.6857405314102181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -933,11 +987,17 @@
       <c r="K8" s="4">
         <v>1.4076816453297933</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="4">
         <v>1.6545041984558106</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="12">
+        <v>2.7338757199605306</v>
+      </c>
+      <c r="N8" s="20">
+        <v>3.2788017603556314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -971,11 +1031,17 @@
       <c r="K9" s="4">
         <v>18.605730410433448</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="4">
         <v>20.038035508508049</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="12">
+        <v>24.529128671679182</v>
+      </c>
+      <c r="N9" s="20">
+        <v>33.081395214640295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1009,11 +1075,17 @@
       <c r="K10" s="4">
         <v>3.0964880123138427</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="4">
         <v>5.143086917872111</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="12">
+        <v>5.5983698494974785</v>
+      </c>
+      <c r="N10" s="20">
+        <v>5.1029153543853756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
@@ -1047,11 +1119,17 @@
       <c r="K11" s="4">
         <v>5.8596496434417924</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="4">
         <v>6.5702439042153156</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="12">
+        <v>7.2452824835179648</v>
+      </c>
+      <c r="N11" s="20">
+        <v>15.007248190076117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1085,11 +1163,17 @@
       <c r="K12" s="3">
         <v>5.8028485903648734</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="3">
         <v>6.8187863323430209</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="11">
+        <v>6.4607666619029533</v>
+      </c>
+      <c r="N12" s="19">
+        <v>9.4873625400105261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1123,11 +1207,17 @@
       <c r="K13" s="3">
         <v>5.7886444823964434</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="3">
         <v>10.979557646522524</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="11">
+        <v>7.288739652531941</v>
+      </c>
+      <c r="N13" s="19">
+        <v>11.632625270741782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
@@ -1161,11 +1251,17 @@
       <c r="K14" s="4">
         <v>0.45280474446614588</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="4">
         <v>6.1516771443684899E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="12">
+        <v>0.71837586644490548</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0.79488074340820314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -1199,11 +1295,17 @@
       <c r="K15" s="4">
         <v>5.3358397379302982</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="4">
         <v>10.918040875078836</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="12">
+        <v>6.570363786087035</v>
+      </c>
+      <c r="N15" s="20">
+        <v>10.837744527333578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -1237,11 +1339,17 @@
       <c r="K16" s="3">
         <v>100.45224403881964</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="3">
         <v>113.06253845951767</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="11">
+        <v>141.92129528746744</v>
+      </c>
+      <c r="N16" s="19">
+        <v>175.53906313527165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1275,27 +1383,35 @@
       <c r="K17" s="5">
         <v>106.25509262918452</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="5">
         <v>119.88132479186066</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="M17" s="13">
+        <v>148.38206194937038</v>
+      </c>
+      <c r="N17" s="21">
+        <v>185.02642567528221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="6">
         <v>2011</v>
@@ -1330,8 +1446,14 @@
       <c r="L21" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="M21" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -1365,11 +1487,17 @@
       <c r="K22" s="3">
         <v>1214.0604902729067</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="3">
         <v>1257.5579614752492</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="M22" s="14">
+        <v>1540.1589625260635</v>
+      </c>
+      <c r="N22" s="22">
+        <v>1835.7318111084739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
@@ -1403,11 +1531,17 @@
       <c r="K23" s="3">
         <v>1143.9374856823131</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="3">
         <v>1178.8170992779208</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="M23" s="11">
+        <v>1469.6339545587487</v>
+      </c>
+      <c r="N23" s="19">
+        <v>1735.2884666660379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>0</v>
       </c>
@@ -1441,11 +1575,17 @@
       <c r="K24" s="4">
         <v>620.38410490186448</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="4">
         <v>594.91658692839701</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="12">
+        <v>724.36733378349641</v>
+      </c>
+      <c r="N24" s="20">
+        <v>840.69099612048183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1479,11 +1619,17 @@
       <c r="K25" s="4">
         <v>137.51103045333466</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="4">
         <v>167.06852357782034</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="12">
+        <v>247.74256791319632</v>
+      </c>
+      <c r="N25" s="20">
+        <v>247.13372108901919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>2</v>
       </c>
@@ -1517,11 +1663,17 @@
       <c r="K26" s="4">
         <v>35.967411135822118</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="4">
         <v>31.073157257478989</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="12">
+        <v>59.724263291022517</v>
+      </c>
+      <c r="N26" s="20">
+        <v>49.608249730045259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>16</v>
       </c>
@@ -1555,11 +1707,17 @@
       <c r="K27" s="4">
         <v>17.010760308558776</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="4">
         <v>19.105612164085041</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="12">
+        <v>29.842682304065029</v>
+      </c>
+      <c r="N27" s="20">
+        <v>34.712894461973434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
@@ -1593,11 +1751,17 @@
       <c r="K28" s="4">
         <v>224.83607812006161</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="4">
         <v>231.39193923655944</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="12">
+        <v>267.75723153758526</v>
+      </c>
+      <c r="N28" s="20">
+        <v>350.23495309337852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
@@ -1631,11 +1795,17 @@
       <c r="K29" s="4">
         <v>37.418698716822398</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="4">
         <v>59.390495394786086</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="12">
+        <v>61.111180592225899</v>
+      </c>
+      <c r="N29" s="20">
+        <v>54.024907600986019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
@@ -1669,11 +1839,17 @@
       <c r="K30" s="4">
         <v>70.809402045849509</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="4">
         <v>75.870784718794056</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="12">
+        <v>79.088695137156947</v>
+      </c>
+      <c r="N30" s="20">
+        <v>158.88274457015368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
@@ -1707,11 +1883,17 @@
       <c r="K31" s="3">
         <v>70.123004590593311</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="3">
         <v>78.740862197328013</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="11">
+        <v>70.525007967314664</v>
+      </c>
+      <c r="N31" s="19">
+        <v>100.44334444243583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>12</v>
       </c>
@@ -1745,11 +1927,17 @@
       <c r="K32" s="3">
         <v>69.951358766518354</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="3">
         <v>126.78793461114107</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="11">
+        <v>79.563068745016821</v>
+      </c>
+      <c r="N32" s="19">
+        <v>123.15538506211688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -1783,11 +1971,17 @@
       <c r="K33" s="4">
         <v>5.4718003891336169</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="4">
         <v>0.71037328154661472</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="12">
+        <v>7.8417107993234856</v>
+      </c>
+      <c r="N33" s="20">
+        <v>8.4154558196867431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>8</v>
       </c>
@@ -1821,11 +2015,17 @@
       <c r="K34" s="4">
         <v>64.47955837738472</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="4">
         <v>126.07756132959442</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="12">
+        <v>71.721357945693327</v>
+      </c>
+      <c r="N34" s="20">
+        <v>114.73992924243014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>13</v>
       </c>
@@ -1859,11 +2059,17 @@
       <c r="K35" s="3">
         <v>1213.8888444488321</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="3">
         <v>1305.6050338890623</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="11">
+        <v>1549.1970233037653</v>
+      </c>
+      <c r="N35" s="19">
+        <v>1858.4438517281551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -1897,27 +2103,35 @@
       <c r="K36" s="5">
         <v>1284.011849039425</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="5">
         <v>1384.3458960863902</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="11" t="s">
+      <c r="M36" s="13">
+        <v>1619.7220312710797</v>
+      </c>
+      <c r="N36" s="21">
+        <v>1958.8871961705911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="6">
         <v>2011</v>
@@ -1952,8 +2166,14 @@
       <c r="L40" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>9</v>
       </c>
@@ -1987,11 +2207,17 @@
       <c r="K41" s="3">
         <v>285.50364378774862</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="3">
         <v>306.84765410311741</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="11">
+        <v>396.92941051700393</v>
+      </c>
+      <c r="N41" s="19">
+        <v>478.57658522930996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>10</v>
       </c>
@@ -2025,11 +2251,17 @@
       <c r="K42" s="3">
         <v>269.0132189000571</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="3">
         <v>287.63466385735325</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="M42" s="11">
+        <v>378.75372182493533</v>
+      </c>
+      <c r="N42" s="19">
+        <v>452.39093408931791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>0</v>
       </c>
@@ -2063,11 +2295,17 @@
       <c r="K43" s="4">
         <v>145.89217252071867</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="4">
         <v>145.16130840749707</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+      <c r="M43" s="12">
+        <v>186.68378121494814</v>
+      </c>
+      <c r="N43" s="20">
+        <v>219.16873898558441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>1</v>
       </c>
@@ -2101,11 +2339,17 @@
       <c r="K44" s="4">
         <v>32.337680510968561</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="4">
         <v>40.765186261623064</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+      <c r="M44" s="12">
+        <v>63.848157128189783</v>
+      </c>
+      <c r="N44" s="20">
+        <v>64.427936378342139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>2</v>
       </c>
@@ -2139,11 +2383,17 @@
       <c r="K45" s="4">
         <v>8.4582498311768202</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="4">
         <v>7.5819371369964053</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="M45" s="12">
+        <v>15.392123279785634</v>
+      </c>
+      <c r="N45" s="20">
+        <v>12.932905891450508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>3</v>
       </c>
@@ -2177,11 +2427,17 @@
       <c r="K46" s="4">
         <v>4.0003229580445563</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L46" s="4">
         <v>4.661822717003143</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="12">
+        <v>7.6910491601273945</v>
+      </c>
+      <c r="N46" s="20">
+        <v>9.0496762078799193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>4</v>
       </c>
@@ -2215,11 +2471,17 @@
       <c r="K47" s="4">
         <v>52.873411228294728</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="4">
         <v>56.460279293859642</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="12">
+        <v>69.006331594216945</v>
+      </c>
+      <c r="N47" s="20">
+        <v>91.306500690951012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>5</v>
       </c>
@@ -2253,11 +2515,17 @@
       <c r="K48" s="4">
         <v>8.7995408095747294</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="4">
         <v>14.491446713544411</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="12">
+        <v>15.749559284897462</v>
+      </c>
+      <c r="N48" s="20">
+        <v>14.084331731113144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>6</v>
       </c>
@@ -2291,11 +2559,17 @@
       <c r="K49" s="4">
         <v>16.651841041278999</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="4">
         <v>18.512683326829556</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="12">
+        <v>20.382720162769893</v>
+      </c>
+      <c r="N49" s="20">
+        <v>41.420844203996715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>11</v>
       </c>
@@ -2329,11 +2603,17 @@
       <c r="K50" s="3">
         <v>16.490424887691603</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="3">
         <v>19.2129902457641</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="11">
+        <v>18.17568869206869</v>
+      </c>
+      <c r="N50" s="19">
+        <v>26.185651139992075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>12</v>
       </c>
@@ -2367,11 +2647,17 @@
       <c r="K51" s="3">
         <v>16.450059923501613</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="3">
         <v>30.936610077494063</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="11">
+        <v>20.504975618936452</v>
+      </c>
+      <c r="N51" s="19">
+        <v>32.106696239054244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>7</v>
       </c>
@@ -2405,11 +2691,17 @@
       <c r="K52" s="4">
         <v>1.2867719209161479</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="4">
         <v>0.17333306428627959</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="12">
+        <v>2.0209638879841423</v>
+      </c>
+      <c r="N52" s="20">
+        <v>2.1939153012236066</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>8</v>
       </c>
@@ -2443,11 +2735,17 @@
       <c r="K53" s="4">
         <v>15.163288002585462</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="4">
         <v>30.763277013207784</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="12">
+        <v>18.484011730952311</v>
+      </c>
+      <c r="N53" s="20">
+        <v>29.912780937830636</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>13</v>
       </c>
@@ -2481,11 +2779,17 @@
       <c r="K54" s="3">
         <v>285.46327882355865</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="3">
         <v>318.57127393484734</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="11">
+        <v>399.25869744387171</v>
+      </c>
+      <c r="N54" s="19">
+        <v>484.49763032837205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>14</v>
       </c>
@@ -2519,49 +2823,59 @@
       <c r="K55" s="5">
         <v>301.95370371125034</v>
       </c>
-      <c r="L55" s="16">
+      <c r="L55" s="5">
         <v>337.78426418061144</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
-      <c r="A56" s="12" t="s">
+      <c r="M55" s="13">
+        <v>417.43438613594026</v>
+      </c>
+      <c r="N55" s="21">
+        <v>510.68328146836433</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="13" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
+    <mergeCell ref="A39:N39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
